--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85DB4856-6364-5D4D-A9B2-9C0EC7A6416C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26B890FE-BCAE-1C42-8F5D-9AC3B5797B28}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25180" yWindow="4200" windowWidth="24040" windowHeight="22780" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
@@ -50,12 +50,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,13 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,52 +1502,52 @@
         <v>42427</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>42449</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="5">
         <v>5</v>
       </c>
-      <c r="C72" s="2">
-        <v>15</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="C72" s="5">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4">
         <f t="shared" si="1"/>
         <v>42434</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>42456</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>6</v>
       </c>
-      <c r="C73">
-        <v>15</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="5">
+        <v>15</v>
+      </c>
+      <c r="D73" s="4">
         <f t="shared" si="1"/>
         <v>42441</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
         <v>42463</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>5</v>
       </c>
-      <c r="C74">
-        <v>15</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74" s="6">
+        <v>15</v>
+      </c>
+      <c r="D74" s="7">
         <f t="shared" si="1"/>
         <v>42448</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">

--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26B890FE-BCAE-1C42-8F5D-9AC3B5797B28}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7C53227-D911-7648-8346-A728FBB315C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25180" yWindow="4200" windowWidth="24040" windowHeight="22780" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
+    <workbookView xWindow="25180" yWindow="4200" windowWidth="24040" windowHeight="22780" activeTab="1" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Published Date</t>
   </si>
@@ -44,12 +45,19 @@
   <si>
     <t>Movie Closes: 2016-03-17</t>
   </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -99,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -108,6 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C60CE38-245A-4541-A8A0-66C62A6C83D6}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1598,4 +1607,1263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE50EA-E0E9-DC4C-B033-9E9586F4F270}">
+  <dimension ref="A1:B155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42279</v>
+      </c>
+      <c r="B2" s="8">
+        <v>18145681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B3" s="8">
+        <v>22251765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13911129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42282</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4401171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42283</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5457240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42284</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3741530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42285</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3801813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42286</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10729571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42287</v>
+      </c>
+      <c r="B10" s="8">
+        <v>15877535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10398160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42289</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4900783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42290</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3454333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42291</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2634337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42292</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2590610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42293</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6277423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42294</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9456390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42295</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5566307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42296</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1594290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42297</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2100170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42298</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1575030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42299</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1589880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42300</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4353926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42301</v>
+      </c>
+      <c r="B24" s="8">
+        <v>7265327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4113654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42303</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1215127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42304</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1574997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42305</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1251481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42306</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1177093</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42307</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3475095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4564809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3675193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1151099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1472489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>42312</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1066793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B36" s="8">
+        <v>955115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2587558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>42315</v>
+      </c>
+      <c r="B38" s="8">
+        <v>4290010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>42316</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2196751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B40" s="8">
+        <v>616711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>42318</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1049140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1501925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B43" s="8">
+        <v>673175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42321</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1928448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>42322</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3193837</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>42323</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1589886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>42324</v>
+      </c>
+      <c r="B47" s="8">
+        <v>455828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>42325</v>
+      </c>
+      <c r="B48" s="8">
+        <v>604624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>42326</v>
+      </c>
+      <c r="B49" s="8">
+        <v>467098</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B50" s="8">
+        <v>417105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1016327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>42329</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1745675</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1035768</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B54" s="8">
+        <v>443363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B55" s="8">
+        <v>510274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>42333</v>
+      </c>
+      <c r="B56" s="8">
+        <v>603663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B57" s="8">
+        <v>621336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>42335</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1341979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>42336</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1310403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B60" s="8">
+        <v>568684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B61" s="8">
+        <v>163937</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B62" s="8">
+        <v>189027</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>42340</v>
+      </c>
+      <c r="B63" s="8">
+        <v>157184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>42341</v>
+      </c>
+      <c r="B64" s="8">
+        <v>151126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>42342</v>
+      </c>
+      <c r="B65" s="8">
+        <v>451903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>42343</v>
+      </c>
+      <c r="B66" s="8">
+        <v>769471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>42344</v>
+      </c>
+      <c r="B67" s="8">
+        <v>384986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B68" s="8">
+        <v>132310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B69" s="8">
+        <v>173447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B70" s="8">
+        <v>146274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>42348</v>
+      </c>
+      <c r="B71" s="8">
+        <v>143456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>42349</v>
+      </c>
+      <c r="B72" s="8">
+        <v>397265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>42350</v>
+      </c>
+      <c r="B73" s="8">
+        <v>676358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B74" s="8">
+        <v>383737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>42352</v>
+      </c>
+      <c r="B75" s="8">
+        <v>148620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B76" s="8">
+        <v>175666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>42354</v>
+      </c>
+      <c r="B77" s="8">
+        <v>158991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>42355</v>
+      </c>
+      <c r="B78" s="8">
+        <v>88751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>42356</v>
+      </c>
+      <c r="B79" s="8">
+        <v>113611</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>42357</v>
+      </c>
+      <c r="B80" s="8">
+        <v>194111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>42358</v>
+      </c>
+      <c r="B81" s="8">
+        <v>142288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>42359</v>
+      </c>
+      <c r="B82" s="8">
+        <v>124099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>42360</v>
+      </c>
+      <c r="B83" s="8">
+        <v>144466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>42361</v>
+      </c>
+      <c r="B84" s="8">
+        <v>123735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>42362</v>
+      </c>
+      <c r="B85" s="8">
+        <v>94342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>42363</v>
+      </c>
+      <c r="B86" s="8">
+        <v>128028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B87" s="8">
+        <v>204100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B88" s="8">
+        <v>155316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>42366</v>
+      </c>
+      <c r="B89" s="8">
+        <v>116352</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>42367</v>
+      </c>
+      <c r="B90" s="8">
+        <v>129363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>42368</v>
+      </c>
+      <c r="B91" s="8">
+        <v>131168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B92" s="8">
+        <v>114951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B93" s="8">
+        <v>221555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B94" s="8">
+        <v>232840</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B95" s="8">
+        <v>111009</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>42373</v>
+      </c>
+      <c r="B96" s="8">
+        <v>49088</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B97" s="8">
+        <v>53258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>42375</v>
+      </c>
+      <c r="B98" s="8">
+        <v>47505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>42376</v>
+      </c>
+      <c r="B99" s="8">
+        <v>50414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>42377</v>
+      </c>
+      <c r="B100" s="8">
+        <v>108274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B101" s="8">
+        <v>175954</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B102" s="8">
+        <v>91685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B103" s="8">
+        <v>40423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B104" s="8">
+        <v>52024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B105" s="8">
+        <v>42315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B106" s="8">
+        <v>51343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>42384</v>
+      </c>
+      <c r="B107" s="8">
+        <v>130359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>42385</v>
+      </c>
+      <c r="B108" s="8">
+        <v>186884</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>42386</v>
+      </c>
+      <c r="B109" s="8">
+        <v>135829</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B110" s="8">
+        <v>102673</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B111" s="8">
+        <v>39170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B112" s="8">
+        <v>32974</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B113" s="8">
+        <v>34485</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>42391</v>
+      </c>
+      <c r="B114" s="8">
+        <v>77120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>42392</v>
+      </c>
+      <c r="B115" s="8">
+        <v>144766</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B116" s="8">
+        <v>59281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B117" s="8">
+        <v>23847</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B118" s="8">
+        <v>30270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B119" s="8">
+        <v>27845</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>42397</v>
+      </c>
+      <c r="B120" s="8">
+        <v>28163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B121" s="8">
+        <v>56134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B122" s="8">
+        <v>96984</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B123" s="8">
+        <v>58817</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B124" s="8">
+        <v>16353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B125" s="8">
+        <v>18074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>42403</v>
+      </c>
+      <c r="B126" s="8">
+        <v>16695</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B127" s="8">
+        <v>16576</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B128" s="8">
+        <v>33768</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B129" s="8">
+        <v>61993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B130" s="8">
+        <v>17956</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>42408</v>
+      </c>
+      <c r="B131" s="8">
+        <v>10642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>42409</v>
+      </c>
+      <c r="B132" s="8">
+        <v>13223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B133" s="8">
+        <v>10292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>42411</v>
+      </c>
+      <c r="B134" s="8">
+        <v>13188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>42412</v>
+      </c>
+      <c r="B135" s="8">
+        <v>17259</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>42413</v>
+      </c>
+      <c r="B136" s="8">
+        <v>33190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>42414</v>
+      </c>
+      <c r="B137" s="8">
+        <v>34718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B138" s="8">
+        <v>15573</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>42416</v>
+      </c>
+      <c r="B139" s="8">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>42417</v>
+      </c>
+      <c r="B140" s="8">
+        <v>6995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B141" s="8">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>42419</v>
+      </c>
+      <c r="B142" s="8">
+        <v>9157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>42420</v>
+      </c>
+      <c r="B143" s="8">
+        <v>26481</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>42421</v>
+      </c>
+      <c r="B144" s="8">
+        <v>9588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>42422</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>42423</v>
+      </c>
+      <c r="B146" s="8">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>42424</v>
+      </c>
+      <c r="B147" s="8">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>42425</v>
+      </c>
+      <c r="B148" s="8">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>42426</v>
+      </c>
+      <c r="B149" s="8">
+        <v>6244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>42427</v>
+      </c>
+      <c r="B150" s="8">
+        <v>17685</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>42428</v>
+      </c>
+      <c r="B151" s="8">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B152" s="8">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B153" s="8">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>42431</v>
+      </c>
+      <c r="B154" s="8">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>42432</v>
+      </c>
+      <c r="B155" s="8">
+        <v>3977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A7C53227-D911-7648-8346-A728FBB315C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B973C6F-AE64-304C-B788-C07EC1E09866}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25180" yWindow="4200" windowWidth="24040" windowHeight="22780" activeTab="1" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
+    <workbookView xWindow="760" yWindow="3580" windowWidth="24040" windowHeight="22780" activeTab="2" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Published Date</t>
   </si>
@@ -50,6 +51,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Week End</t>
+  </si>
+  <si>
+    <t>Box Office Gross</t>
+  </si>
+  <si>
+    <t>Week Start</t>
   </si>
 </sst>
 </file>
@@ -433,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C60CE38-245A-4541-A8A0-66C62A6C83D6}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DE50EA-E0E9-DC4C-B033-9E9586F4F270}">
   <dimension ref="A1:B155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+    <sheetView topLeftCell="A113" workbookViewId="0">
       <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
@@ -2866,4 +2876,1041 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F84C22D-66EE-724F-A9D0-E520568CFC40}">
+  <dimension ref="A1:D77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>41938</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>41945</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>41952</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>41959</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>41966</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>41973</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>41980</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>41987</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>41994</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>42001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>42008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>42015</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>42022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42028</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>42029</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42035</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>42036</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42042</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>42043</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42049</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>42050</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>42057</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>42064</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>42071</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>42078</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>42085</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>42092</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42098</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>42099</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42105</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>42106</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>42113</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>42120</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>42127</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>42134</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42140</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>42141</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42147</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>42148</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>42155</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>42162</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>42169</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>42176</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42182</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>42183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>42190</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>42197</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>42204</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>42211</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>42218</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42225</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42232</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>42239</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>42246</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>42253</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>42260</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>42267</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>42274</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
+        <f>SUM('Box Office'!B2:B3)</f>
+        <v>40397446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>42281</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <f>SUM('Box Office'!B4:B10)</f>
+        <v>57919989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>42288</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <f>SUM('Box Office'!B11:B17)</f>
+        <v>39712036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>42295</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <f>SUM('Box Office'!B18:B24)</f>
+        <v>24044930</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>42302</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
+        <f>SUM('Box Office'!B25:B31)</f>
+        <v>17372256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>42309</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <f>SUM('Box Office'!B32:B38)</f>
+        <v>15198257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>42316</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8">
+        <f>SUM('Box Office'!B39:B45)</f>
+        <v>11159987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>42323</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <f>SUM('Box Office'!B46:B52)</f>
+        <v>6296543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>42330</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8">
+        <f>SUM('Box Office'!B53:B59)</f>
+        <v>5866786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>42337</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
+        <f>SUM('Box Office'!B60:B66)</f>
+        <v>2451332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>42344</v>
+      </c>
+      <c r="B60" s="1">
+        <v>42350</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <f>SUM('Box Office'!B67:B73)</f>
+        <v>2054096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>42351</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42357</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <f>SUM('Box Office'!B74:B80)</f>
+        <v>1263487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>42358</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <f>SUM('Box Office'!B81:B87)</f>
+        <v>961058</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>42365</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42371</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
+        <f>SUM('Box Office'!B88:B94)</f>
+        <v>1101545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>42372</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42378</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
+        <f>SUM('Box Office'!B95:B101)</f>
+        <v>595502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>42379</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42385</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" s="8">
+        <f>SUM('Box Office'!B102:B108)</f>
+        <v>595033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>42386</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42392</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" s="8">
+        <f>SUM('Box Office'!B109:B115)</f>
+        <v>567017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A77" si="1">B67-6</f>
+        <v>42393</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="8">
+        <f>SUM('Box Office'!B116:B122)</f>
+        <v>322524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>42400</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42406</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" s="8">
+        <f>SUM('Box Office'!B123:B129)</f>
+        <v>222276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>42407</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42413</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="8">
+        <f>SUM('Box Office'!B130:B136)</f>
+        <v>115750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>42414</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42420</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
+        <f>SUM('Box Office'!B137:B143)</f>
+        <v>107216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>42421</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" s="8">
+        <f>SUM('Box Office'!B144:B150)</f>
+        <v>48296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>42428</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42434</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" s="8">
+        <f>SUM('Box Office'!B151:B155)</f>
+        <v>22585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>42435</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42441</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>42442</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42448</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>42449</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42455</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>42456</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42462</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>42463</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42469</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B973C6F-AE64-304C-B788-C07EC1E09866}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F92B9D4-08AE-5849-8A69-25E2B5E5510C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="3580" windowWidth="24040" windowHeight="22780" activeTab="2" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
+    <workbookView xWindow="8860" yWindow="2460" windowWidth="24040" windowHeight="22780" activeTab="3" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Published Date</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Week Start</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +2886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F84C22D-66EE-724F-A9D0-E520568CFC40}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3913,4 +3917,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BE83F5-A722-324E-84D2-B5BE92EFEBFB}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40397446</v>
+      </c>
+      <c r="D2">
+        <f>CORREL(A2:A24,B2:B24)</f>
+        <v>-0.40289503678809474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57919989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>39712036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>24044930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>17372256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>15198257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>11159987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6296543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5866786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2451332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2054096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1263487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>961058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1101545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>595502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>595033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>567017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>322524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>222276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>115750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>107216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>48296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>22585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F92B9D4-08AE-5849-8A69-25E2B5E5510C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61599F95-1F45-2D4F-BB5A-D01B5D0CE66E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="2460" windowWidth="24040" windowHeight="22780" activeTab="3" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
+    <workbookView xWindow="4760" yWindow="460" windowWidth="24040" windowHeight="16400" activeTab="4" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Published Date</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Correlation:</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
+  </si>
+  <si>
+    <t>Correlation once first move comes out:</t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D77"/>
+      <selection activeCell="B1" sqref="B1:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3923,7 +3930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BE83F5-A722-324E-84D2-B5BE92EFEBFB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4134,4 +4141,1193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CC301-8C03-C74E-9850-093F1AA8C633}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>41938</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C77,D2:D77)</f>
+        <v>-0.43202127069208124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>41945</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>41952</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>41959</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>CORREL(C50:C77,D50:D77)</f>
+        <v>-0.82676910035913864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>41966</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>41973</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>41980</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>41987</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>41994</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>42001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>42008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>42015</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>42022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42028</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>42029</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42035</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>42036</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42042</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>42043</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42049</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>42050</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>42057</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>42064</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>42071</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>42078</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>42085</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>42092</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42098</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>42099</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42105</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>42106</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>42113</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>42120</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>42127</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>42134</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42140</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>42141</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42147</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>42148</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>42155</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>42162</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>42169</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>42176</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42182</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>42183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>42190</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>42197</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>42204</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>42211</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>42218</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42225</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42232</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>42239</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>42246</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>42253</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>42260</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>42267</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>42274</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>42281</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>42288</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>42295</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>42302</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>42309</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>42316</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>42323</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>42330</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>42337</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>42344</v>
+      </c>
+      <c r="B60" s="1">
+        <v>42350</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>42351</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42357</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>42358</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>42365</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42371</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>42372</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42378</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>42379</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42385</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>42386</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42392</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A77" si="1">B67-6</f>
+        <v>42393</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>42400</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42406</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>42407</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42413</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>42414</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42420</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>42421</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>42428</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42434</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>42435</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42441</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>42442</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42448</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>42449</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42455</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>42456</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42462</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>42463</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42469</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Downloads/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F92B9D4-08AE-5849-8A69-25E2B5E5510C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9805A366-DD6D-D344-8B3F-7DB950651D96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="2460" windowWidth="24040" windowHeight="22780" activeTab="3" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
+    <workbookView xWindow="4760" yWindow="460" windowWidth="24040" windowHeight="16400" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Published Date</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>Correlation:</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
+  </si>
+  <si>
+    <t>Correlation once first move comes out:</t>
+  </si>
+  <si>
+    <t>First trailer</t>
   </si>
 </sst>
 </file>
@@ -447,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C60CE38-245A-4541-A8A0-66C62A6C83D6}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +947,7 @@
         <v>42154</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42176</v>
       </c>
@@ -952,7 +962,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42183</v>
       </c>
@@ -966,8 +976,11 @@
         <f t="shared" si="0"/>
         <v>42168</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42190</v>
       </c>
@@ -982,7 +995,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42197</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>42182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42204</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42211</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42218</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42225</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>42210</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42232</v>
       </c>
@@ -1072,7 +1085,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42239</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42246</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>42231</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42253</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>42238</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42260</v>
       </c>
@@ -1132,7 +1145,7 @@
         <v>42245</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42267</v>
       </c>
@@ -1147,7 +1160,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42274</v>
       </c>
@@ -1162,7 +1175,7 @@
         <v>42259</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42281</v>
       </c>
@@ -3923,7 +3936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BE83F5-A722-324E-84D2-B5BE92EFEBFB}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4134,4 +4147,1193 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381CC301-8C03-C74E-9850-093F1AA8C633}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>41938</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C77,D2:D77)</f>
+        <v>-0.43202127069208124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>41945</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>41952</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>41959</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>CORREL(C50:C77,D50:D77)</f>
+        <v>-0.82676910035913864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>41966</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>41973</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>41980</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>41987</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>41994</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>42001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>42008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>42015</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>42022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42028</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>42029</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42035</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>42036</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42042</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>42043</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42049</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>42050</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>42057</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>42064</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>42071</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>42078</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>42085</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>42092</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42098</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>42099</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42105</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>42106</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>42113</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>42120</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>42127</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>42134</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42140</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>42141</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42147</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>42148</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>42155</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>42162</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>42169</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>42176</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42182</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>42183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>42190</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>42197</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>42204</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>42211</v>
+      </c>
+      <c r="B41" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>42218</v>
+      </c>
+      <c r="B42" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>42225</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>42232</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>42239</v>
+      </c>
+      <c r="B45" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>42246</v>
+      </c>
+      <c r="B46" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>42253</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>42260</v>
+      </c>
+      <c r="B48" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>42267</v>
+      </c>
+      <c r="B49" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>42274</v>
+      </c>
+      <c r="B50" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>42281</v>
+      </c>
+      <c r="B51" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>42288</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>42295</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>42302</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>42309</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>42316</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>42323</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>42330</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>42337</v>
+      </c>
+      <c r="B59" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>42344</v>
+      </c>
+      <c r="B60" s="1">
+        <v>42350</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>42351</v>
+      </c>
+      <c r="B61" s="1">
+        <v>42357</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>42358</v>
+      </c>
+      <c r="B62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>42365</v>
+      </c>
+      <c r="B63" s="1">
+        <v>42371</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>42372</v>
+      </c>
+      <c r="B64" s="1">
+        <v>42378</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>42379</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42385</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>42386</v>
+      </c>
+      <c r="B66" s="1">
+        <v>42392</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A77" si="1">B67-6</f>
+        <v>42393</v>
+      </c>
+      <c r="B67" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>42400</v>
+      </c>
+      <c r="B68" s="1">
+        <v>42406</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>42407</v>
+      </c>
+      <c r="B69" s="1">
+        <v>42413</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>42414</v>
+      </c>
+      <c r="B70" s="1">
+        <v>42420</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>42421</v>
+      </c>
+      <c r="B71" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>42428</v>
+      </c>
+      <c r="B72" s="1">
+        <v>42434</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>42435</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42441</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>42442</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42448</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>42449</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42455</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>42456</v>
+      </c>
+      <c r="B76" s="1">
+        <v>42462</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>42463</v>
+      </c>
+      <c r="B77" s="1">
+        <v>42469</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-the-martian/the-martian.xlsx
+++ b/2-the-martian/the-martian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/2-the-martian/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BD483A5-FCFA-024B-96E6-174D2CFE2268}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B25DA5D-6E44-F848-BBE0-841839ABBBC0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="460" windowWidth="24040" windowHeight="16400" xr2:uid="{9B493D7A-610D-0D44-8370-5F1EB02042AC}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Published Date</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Correlation once first move comes out:</t>
+  </si>
+  <si>
+    <t>First book</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,7 +947,7 @@
         <v>42154</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42176</v>
       </c>
@@ -959,7 +962,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42183</v>
       </c>
@@ -973,8 +976,11 @@
         <f t="shared" si="0"/>
         <v>42168</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42190</v>
       </c>
@@ -989,7 +995,7 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42197</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>42182</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42204</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>42189</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42211</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>42196</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42218</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42225</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>42210</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42232</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>42217</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42239</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42246</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>42231</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42253</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>42238</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42260</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>42245</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42267</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>42252</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42274</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>42259</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42281</v>
       </c>
